--- a/databases/main_database.xlsx
+++ b/databases/main_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documentos\Programacao\Repos\GitHub\BotF1discord\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981E5F75-3775-41D3-9FBA-0A681E0B3A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300EB084-DED6-4CF1-BC14-22B3E846502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="3465" windowWidth="11475" windowHeight="12480" xr2:uid="{4FF4AA7E-DB53-4C59-906F-6386BA78676D}"/>
+    <workbookView xWindow="-5385" yWindow="6075" windowWidth="11475" windowHeight="12480" activeTab="2" xr2:uid="{4FF4AA7E-DB53-4C59-906F-6386BA78676D}"/>
   </bookViews>
   <sheets>
     <sheet name="db_structuredDatas" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="318">
   <si>
     <t>GP do Bahrein</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>gpName</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A60A8E-8765-40C6-B7FF-EEE3426FA942}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2807,15 +2810,15 @@
         <v>235</v>
       </c>
       <c r="H2" t="str">
-        <f>VLOOKUP(E2,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(E2,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
       <c r="I2" t="str">
-        <f>VLOOKUP(F2,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(F2,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(G2,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(G2,db_drivers!$C:$E,3,0)</f>
         <v>Mercedes</v>
       </c>
     </row>
@@ -2843,15 +2846,15 @@
         <v>234</v>
       </c>
       <c r="H3" t="str">
-        <f>VLOOKUP(E3,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(E3,db_drivers!$C:$E,3,0)</f>
         <v>Red Bull Racing</v>
       </c>
       <c r="I3" t="str">
-        <f>VLOOKUP(F3,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(F3,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
       <c r="J3" t="str">
-        <f>VLOOKUP(G3,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(G3,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
     </row>
@@ -2879,15 +2882,15 @@
         <v>237</v>
       </c>
       <c r="H4" t="str">
-        <f>VLOOKUP(E4,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(E4,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
       <c r="I4" t="str">
-        <f>VLOOKUP(F4,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(F4,db_drivers!$C:$E,3,0)</f>
         <v>Red Bull Racing</v>
       </c>
       <c r="J4" t="str">
-        <f>VLOOKUP(G4,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(G4,db_drivers!$C:$E,3,0)</f>
         <v>Mercedes</v>
       </c>
     </row>
@@ -2915,15 +2918,15 @@
         <v>266</v>
       </c>
       <c r="H5" t="str">
-        <f>VLOOKUP(E5,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(E5,db_drivers!$C:$E,3,0)</f>
         <v>Red Bull Racing</v>
       </c>
       <c r="I5" t="str">
-        <f>VLOOKUP(F5,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(F5,db_drivers!$C:$E,3,0)</f>
         <v>Red Bull Racing</v>
       </c>
       <c r="J5" t="str">
-        <f>VLOOKUP(G5,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(G5,db_drivers!$C:$E,3,0)</f>
         <v>McLaren</v>
       </c>
     </row>
@@ -2951,15 +2954,15 @@
         <v>234</v>
       </c>
       <c r="H6" t="str">
-        <f>VLOOKUP(E6,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(E6,db_drivers!$C:$E,3,0)</f>
         <v>Red Bull Racing</v>
       </c>
       <c r="I6" t="str">
-        <f>VLOOKUP(F6,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(F6,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
       <c r="J6" t="str">
-        <f>VLOOKUP(G6,db_drivers!$B:$D,3,0)</f>
+        <f>VLOOKUP(G6,db_drivers!$C:$E,3,0)</f>
         <v>Ferrari</v>
       </c>
     </row>
@@ -3226,386 +3229,453 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E662B2F1-AD14-4640-9F47-BE05DEC1375E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>276</v>
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>292</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
-      </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>278</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>279</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>304</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>289</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>275</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>304</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>287</v>
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>294</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>295</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
         <v>308</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>297</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
         <v>288</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16" t="s">
         <v>308</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" t="s">
         <v>288</v>
       </c>
-      <c r="D14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>311</v>
-      </c>
-      <c r="E19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>271</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>272</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>311</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>290</v>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition ref="D1:D22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+    <sortCondition ref="C1:C22"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4810,6 +4880,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0A898065E27024695C6C29102F947D5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3756bdc26dde60f31ec579e40cfbaf03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4ea2e20b-c96d-401b-b5d4-b1543e475df5" xmlns:ns4="d49b0b4a-cb63-4558-b98e-5ef6d69aefba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5fade5f1090c07e303976556c04179" ns3:_="" ns4:_="">
     <xsd:import namespace="4ea2e20b-c96d-401b-b5d4-b1543e475df5"/>
@@ -4994,12 +5070,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB7B320-5274-4CA2-8700-A11EABD28966}">
   <ds:schemaRefs>
@@ -5009,6 +5079,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4DD662-F2E7-4D45-941A-A173BAAA054C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d49b0b4a-cb63-4558-b98e-5ef6d69aefba"/>
+    <ds:schemaRef ds:uri="4ea2e20b-c96d-401b-b5d4-b1543e475df5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBB64A1-860E-4EB5-B597-9EE2AE42E6EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5025,21 +5112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4DD662-F2E7-4D45-941A-A173BAAA054C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d49b0b4a-cb63-4558-b98e-5ef6d69aefba"/>
-    <ds:schemaRef ds:uri="4ea2e20b-c96d-401b-b5d4-b1543e475df5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>